--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,54 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>fears</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>cut</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>lower</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -106,106 +103,112 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,16 +656,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -724,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8082191780821918</v>
+        <v>0.8287671232876712</v>
       </c>
       <c r="C5">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D5">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7941176470588235</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.625</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>0.8604651162790697</v>
+      </c>
+      <c r="L8">
         <v>37</v>
       </c>
-      <c r="K8">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L8">
-        <v>49</v>
-      </c>
       <c r="M8">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,16 +956,16 @@
         <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8407310704960835</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -982,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6101694915254238</v>
+        <v>0.5949612403100775</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1024,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1032,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5736434108527132</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C11">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>296</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1050,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>318</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1074,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1082,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5503355704697986</v>
+        <v>0.5369127516778524</v>
       </c>
       <c r="C12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1100,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.7906976744186046</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1132,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5294117647058824</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C13">
         <v>27</v>
@@ -1150,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1174,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1182,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4666666666666667</v>
+        <v>0.48</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1224,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1232,7 +1235,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4545454545454545</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C15">
         <v>25</v>
@@ -1250,31 +1253,31 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>0.8125</v>
+      </c>
+      <c r="L15">
+        <v>130</v>
+      </c>
+      <c r="M15">
+        <v>130</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K15">
-        <v>0.78125</v>
-      </c>
-      <c r="L15">
-        <v>100</v>
-      </c>
-      <c r="M15">
-        <v>100</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1282,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4545454545454545</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1300,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1324,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1332,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4464285714285715</v>
+        <v>0.3506493506493507</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1350,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.775</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L17">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1374,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1382,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3555555555555556</v>
+        <v>0.3373015873015873</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1400,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1424,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1432,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3095238095238095</v>
+        <v>0.2627345844504022</v>
       </c>
       <c r="C19">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1450,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1474,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1482,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2546916890080429</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="C20">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1500,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
         <v>35</v>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,37 +1535,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1566666666666667</v>
+        <v>0.03498542274052478</v>
       </c>
       <c r="C21">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>253</v>
+        <v>2979</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1582,37 +1585,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.03409090909090909</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="C22">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E22">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2975</v>
+        <v>1118</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.6615384615384615</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1624,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1632,137 +1635,89 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.03367875647668394</v>
+        <v>0.02165725047080979</v>
       </c>
       <c r="C23">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E23">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="F23">
-        <v>0.9299999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1119</v>
+        <v>2078</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
+        <v>0.65</v>
+      </c>
+      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24">
+        <v>0.6338983050847458</v>
+      </c>
+      <c r="L24">
+        <v>187</v>
+      </c>
+      <c r="M24">
+        <v>187</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K23">
-        <v>0.6588235294117647</v>
-      </c>
-      <c r="L23">
-        <v>224</v>
-      </c>
-      <c r="M23">
-        <v>224</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.024</v>
-      </c>
-      <c r="C24">
-        <v>51</v>
-      </c>
-      <c r="D24">
-        <v>69</v>
-      </c>
-      <c r="E24">
-        <v>0.26</v>
-      </c>
-      <c r="F24">
-        <v>0.74</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2074</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24">
-        <v>0.6382978723404256</v>
-      </c>
-      <c r="L24">
-        <v>60</v>
-      </c>
-      <c r="M24">
-        <v>60</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.008357441337190614</v>
-      </c>
-      <c r="C25">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>116</v>
-      </c>
-      <c r="E25">
-        <v>0.78</v>
-      </c>
-      <c r="F25">
-        <v>0.22</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>3085</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K25">
-        <v>0.6237288135593221</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L25">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="M25">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1774,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26">
+        <v>0.5851063829787234</v>
+      </c>
+      <c r="L26">
         <v>55</v>
       </c>
-      <c r="K26">
-        <v>0.6234309623430963</v>
-      </c>
-      <c r="L26">
-        <v>149</v>
-      </c>
       <c r="M26">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1800,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1826,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1852,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.5686274509803921</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1878,21 +1833,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.550561797752809</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1904,21 +1859,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.3698630136986301</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1930,21 +1885,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.3461538461538461</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1956,21 +1911,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.07451923076923077</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1982,85 +1937,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>385</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.03888024883359253</v>
+        <v>0.1405405405405405</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N34">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>618</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.02834645669291339</v>
+        <v>0.1006493506493507</v>
       </c>
       <c r="L35">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3085</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.008994003997335111</v>
+        <v>0.06987951807228916</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="N36">
+        <v>0.97</v>
+      </c>
+      <c r="O36">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
+        <v>0.03084671073339628</v>
+      </c>
+      <c r="L37">
+        <v>98</v>
+      </c>
+      <c r="M37">
+        <v>122</v>
+      </c>
+      <c r="N37">
+        <v>0.8</v>
+      </c>
+      <c r="O37">
         <v>0.2</v>
       </c>
-      <c r="O36">
-        <v>0.8</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>2975</v>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
